--- a/data/trans_camb/CoPsoQ_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/CoPsoQ_R2-Clase-trans_camb.xlsx
@@ -612,7 +612,7 @@
         <v>-6.538275602661958</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-24.00142531093584</v>
+        <v>-24.00142531093582</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-0.1886354112088928</v>
@@ -624,7 +624,7 @@
         <v>-4.04559153430405</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-23.3213483296923</v>
+        <v>-23.32134832969231</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-14.49293122763493</v>
+        <v>-14.56384880509131</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-36.09981755672958</v>
+        <v>-35.12132048888809</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.121057980534</v>
+        <v>-9.807048571254175</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-33.22345974993253</v>
+        <v>-32.61053200966313</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-11.1474366218289</v>
+        <v>-10.26107534764802</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-32.41418106855875</v>
+        <v>-31.56494564441521</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.486903024446209</v>
+        <v>3.155930004073968</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-9.927371574062152</v>
+        <v>-9.238167825071033</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.786458345930633</v>
+        <v>10.28067325174399</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-9.762487715301083</v>
+        <v>-9.271711179216782</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.022785550253818</v>
+        <v>3.093228772909959</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-13.90329684423795</v>
+        <v>-14.04197052134748</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>-0.1040353429229218</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.3819044446284111</v>
+        <v>-0.3819044446284108</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.003288797403050289</v>
@@ -702,7 +702,7 @@
         <v>-0.06661637941730376</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.3840189439987899</v>
+        <v>-0.3840189439987901</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2198244738938215</v>
+        <v>-0.2195175550706703</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5613135262151969</v>
+        <v>-0.5398237927209975</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1636182426453027</v>
+        <v>-0.1564471459724312</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5389521962189034</v>
+        <v>-0.5448364615981989</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1714780002657157</v>
+        <v>-0.160533425174726</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5196615813380052</v>
+        <v>-0.5065019918690757</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.04176987309917968</v>
+        <v>0.05392025370649844</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1677430135836008</v>
+        <v>-0.1577992771503197</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1881327391633593</v>
+        <v>0.20210496908384</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.175443450999066</v>
+        <v>-0.1798987645540178</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.03637720175674903</v>
+        <v>0.05359535442041486</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2357863665582541</v>
+        <v>-0.2443751022131317</v>
       </c>
     </row>
     <row r="10">
@@ -772,19 +772,19 @@
         <v>-10.19649203266355</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-31.22365255986818</v>
+        <v>-31.22365255986817</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>6.025721711375259</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-9.385071999953409</v>
+        <v>-9.385071999953421</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-3.902966653203244</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-22.33459644510444</v>
+        <v>-22.33459644510443</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-18.94448937582493</v>
+        <v>-19.58849745449668</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-45.50034606153473</v>
+        <v>-45.00664063377692</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.404737460127911</v>
+        <v>-4.408053637605924</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-22.30540203165637</v>
+        <v>-21.43336317887418</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-11.2646744934025</v>
+        <v>-10.59448282571062</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-31.70945312462124</v>
+        <v>-31.66475245882094</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.7710538172216269</v>
+        <v>-0.9393534186662174</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-17.86447467724924</v>
+        <v>-16.13770969807311</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.40107152543314</v>
+        <v>17.40775998791629</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.322789715453125</v>
+        <v>5.4054788717628</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.877601205682122</v>
+        <v>3.035194783045583</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-13.24326002694477</v>
+        <v>-11.19416912600495</v>
       </c>
     </row>
     <row r="13">
@@ -850,13 +850,13 @@
         <v>-0.1493071169014743</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.4572075894251899</v>
+        <v>-0.4572075894251898</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.1212341047569514</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.1888223280949036</v>
+        <v>-0.1888223280949038</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.06402173225730881</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2618717936624337</v>
+        <v>-0.2729041926687772</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6434944371661442</v>
+        <v>-0.6435423397578401</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.07246613525336956</v>
+        <v>-0.07940495824966194</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4201529689596334</v>
+        <v>-0.4063654759051821</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1716042991916554</v>
+        <v>-0.1670461134107808</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5078578925605597</v>
+        <v>-0.4983850894220309</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.0119292984198619</v>
+        <v>-0.01881626849073382</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2674644337423593</v>
+        <v>-0.2493348265681563</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4047866416682625</v>
+        <v>0.3986176384155506</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1233287303231976</v>
+        <v>0.1153861313011344</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04999462407336337</v>
+        <v>0.05099199427499719</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2220541348221158</v>
+        <v>-0.1905801748254402</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.828053433807212</v>
+        <v>-4.40675793688003</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-26.64500549067546</v>
+        <v>-24.74633963846992</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-26.82701829166623</v>
+        <v>-26.19644951716284</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-14.17647513494141</v>
+        <v>-16.51564082666048</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.192039336536978</v>
+        <v>-6.721775405619295</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-19.18006180292128</v>
+        <v>-19.31439661612904</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.99459552748069</v>
+        <v>13.65815992195164</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.300327183027348</v>
+        <v>5.625625504134649</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.32180013409264</v>
+        <v>5.679989413295818</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22.53911986461191</v>
+        <v>22.9666366089474</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.791056104738278</v>
+        <v>9.670392854533175</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.004250406960578</v>
+        <v>5.512176481301161</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.06547831806361397</v>
+        <v>-0.0768081178270995</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4698220380107505</v>
+        <v>-0.4430358266926185</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4249856330280648</v>
+        <v>-0.4098653096371089</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2427250694559002</v>
+        <v>-0.264909083794387</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1082551237531235</v>
+        <v>-0.1141834794505771</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3326142658712848</v>
+        <v>-0.3352167453154218</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2810757804415088</v>
+        <v>0.2645182190812674</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.06114481337236213</v>
+        <v>0.1053827364673413</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.06198461486928979</v>
+        <v>0.1113913615227637</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4221356423341897</v>
+        <v>0.4359939967337413</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1840403680601282</v>
+        <v>0.1846745231904044</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1161901594917664</v>
+        <v>0.1092913441391468</v>
       </c>
     </row>
     <row r="22">
@@ -1092,19 +1092,19 @@
         <v>1.934370059846946</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-12.5053024479603</v>
+        <v>-12.50530244796031</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>4.154654120450497</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-3.508223199566651</v>
+        <v>-3.50822319956664</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>2.945656434752886</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-8.168940210378006</v>
+        <v>-8.168940210378</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.729554003454322</v>
+        <v>-4.819077003854304</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-24.87132232945688</v>
+        <v>-22.7162071318152</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.359672867936419</v>
+        <v>-3.176285182484254</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-12.94556252611785</v>
+        <v>-13.44063470601523</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.597804141140279</v>
+        <v>-2.540233003325568</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-15.54265647122748</v>
+        <v>-16.35573338171423</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.69888086014482</v>
+        <v>8.777027954886091</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.18965329715863</v>
+        <v>-0.9649439500639648</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.0314955753443</v>
+        <v>11.58314509245611</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.31322236919011</v>
+        <v>6.681650694273504</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.320625318183335</v>
+        <v>8.063839639574139</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.5789227756539843</v>
+        <v>-0.9736631014746951</v>
       </c>
     </row>
     <row r="25">
@@ -1170,19 +1170,19 @@
         <v>0.03675344731887588</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.2376034370404207</v>
+        <v>-0.2376034370404208</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.07170587837652245</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>-0.06054901774555993</v>
+        <v>-0.06054901774555974</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05371127298905216</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1489529371091326</v>
+        <v>-0.1489529371091325</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.08310640950140667</v>
+        <v>-0.08736092960121936</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4476377216791559</v>
+        <v>-0.4164101670301568</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.05341116228902622</v>
+        <v>-0.05223353148112953</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2179757301088328</v>
+        <v>-0.2242758140276952</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.044822671040339</v>
+        <v>-0.04269196449546242</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2778762968726842</v>
+        <v>-0.2808136317455787</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1800587535645313</v>
+        <v>0.1822881511138986</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.04476707227253277</v>
+        <v>-0.01996026892453122</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2287217898751397</v>
+        <v>0.2202720389144398</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1314673748489225</v>
+        <v>0.120202257118432</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1602253041186317</v>
+        <v>0.1562764692330341</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.01314305043880393</v>
+        <v>-0.01766857805482094</v>
       </c>
     </row>
     <row r="28">
@@ -1264,7 +1264,7 @@
         <v>-6.530164212456707</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-5.793872125370764</v>
+        <v>-5.793872125370758</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-19.47331466193348</v>
+        <v>-20.64307858813499</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-27.59819367547552</v>
+        <v>-28.11760342948477</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-15.20166224327701</v>
+        <v>-15.35952664744442</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-12.21619681540567</v>
+        <v>-11.85810667792947</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-14.40755256102241</v>
+        <v>-14.83233512353511</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-15.75911422484888</v>
+        <v>-14.57612257851154</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.186901408288425</v>
+        <v>2.075132709447638</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.248840567198937</v>
+        <v>2.780423343559838</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.241502826585967</v>
+        <v>5.421909920433345</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.8973262944625</v>
+        <v>12.29608338532693</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.504661023412317</v>
+        <v>0.8047083783308676</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.807297726136818</v>
+        <v>5.332754954288429</v>
       </c>
     </row>
     <row r="31">
@@ -1330,7 +1330,7 @@
         <v>-0.1680111128937194</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.2316725696656259</v>
+        <v>-0.2316725696656257</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.09526786493496758</v>
@@ -1342,7 +1342,7 @@
         <v>-0.1304715790178852</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.1157605873651444</v>
+        <v>-0.1157605873651443</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3265954013100275</v>
+        <v>-0.3440632249956657</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4837038163061763</v>
+        <v>-0.4910631410835025</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.282297370612039</v>
+        <v>-0.2927609850040249</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2335419974301064</v>
+        <v>-0.2387330365437544</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2665465637065412</v>
+        <v>-0.2767085662276679</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2953750087799188</v>
+        <v>-0.2789864595895037</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.05219599519095276</v>
+        <v>0.04355659059002253</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.06542640710135736</v>
+        <v>0.05216108540923769</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1257763328961478</v>
+        <v>0.1324794324189357</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3100633411161929</v>
+        <v>0.2979693484755629</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.03409728887946843</v>
+        <v>0.01671955918807342</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1038686545695442</v>
+        <v>0.1143791360187775</v>
       </c>
     </row>
     <row r="34">
@@ -1418,7 +1418,7 @@
         <v>0.8808351394947622</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>-7.53043624154166</v>
+        <v>-7.530436241541677</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-1.655720599134902</v>
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-7.055479504430121</v>
+        <v>-6.839684495663458</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-24.64154707580736</v>
+        <v>-24.08048252077572</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.939145412323779</v>
+        <v>-3.435485126832321</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-12.7671339552904</v>
+        <v>-12.86868500320439</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.506510842639843</v>
+        <v>-4.539825593867336</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-18.01473245160102</v>
+        <v>-17.54322221558363</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.2883752933930088</v>
+        <v>0.6546052387816298</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-12.62689513202228</v>
+        <v>-11.73493331794854</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.550609031730181</v>
+        <v>5.200472912680466</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-1.573135074140762</v>
+        <v>-1.212822364262689</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.392540072124987</v>
+        <v>1.522302498547318</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-9.358845707191128</v>
+        <v>-8.882640253187626</v>
       </c>
     </row>
     <row r="37">
@@ -1496,7 +1496,7 @@
         <v>0.01621225957932027</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>-0.1386018581904228</v>
+        <v>-0.1386018581904231</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>-0.02920036981755917</v>
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1175790412205048</v>
+        <v>-0.1132422947562476</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4171334240913781</v>
+        <v>-0.4085631833097453</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.06883008509976198</v>
+        <v>-0.05952691560668985</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2329702814973881</v>
+        <v>-0.2300036312306404</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.07815420625986332</v>
+        <v>-0.07787783149763684</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3112102538051097</v>
+        <v>-0.3063600900003128</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.005020926538946749</v>
+        <v>0.01163386576826247</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.2197503785959548</v>
+        <v>-0.2089413074989727</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.1056850502079967</v>
+        <v>0.101500765347805</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.03118255350253069</v>
+        <v>-0.02245345824397991</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.02535020928788148</v>
+        <v>0.02770384226162894</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.1682159108730514</v>
+        <v>-0.1630759213050936</v>
       </c>
     </row>
     <row r="40">
